--- a/m1/u1/ejercicios/20191107/EjExcAva-Pra3.xlsx
+++ b/m1/u1/ejercicios/20191107/EjExcAva-Pra3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndresRamos\Documents\poo\m1\u1\ejercicios\20191107\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="11580" windowHeight="5775" tabRatio="522"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="522"/>
   </bookViews>
   <sheets>
     <sheet name="ARTICULOS" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm.Extract" localSheetId="0">ARTICULOS!$D$80</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">ARTICULOS!$D$77:$D$78</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -436,6 +436,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -491,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -499,6 +502,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -782,7 +786,7 @@
   <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -871,6 +875,14 @@
       <c r="E4">
         <v>1</v>
       </c>
+      <c r="F4" t="str">
+        <f t="array" ref="F4:F73">VLOOKUP(E4:E73,TABLAS!A4:B7,2,0)</f>
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G4">
+        <f t="array" ref="G4:G73">HLOOKUP(H4:H73,TABLAS!K3:N4,2,0)</f>
+        <v>2</v>
+      </c>
       <c r="H4" t="s">
         <v>6</v>
       </c>
@@ -879,6 +891,22 @@
       </c>
       <c r="J4">
         <v>30</v>
+      </c>
+      <c r="K4" s="7">
+        <f t="array" ref="K4:K73">VLOOKUP(F4:F73,TABLAS!B4:C7,2,0)*I4:I73</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="array" ref="L4:L73">VLOOKUP((VLOOKUP(D4:D73,TABLAS!E4:G18,3,0)),PROCEDENCIA!A4:B6,2,0)</f>
+        <v>BRASIL</v>
+      </c>
+      <c r="M4" s="7">
+        <f t="array" ref="M4:M73">VLOOKUP(VLOOKUP(D4:D73,TABLAS!E4:F18,2,0),CATEGORIAS!A4:B8,2,0)*I4:I73</f>
+        <v>0.96</v>
+      </c>
+      <c r="N4" s="7">
+        <f t="array" ref="N4:N73">IF(L4:L73&lt;&gt;"URUGUAY",VLOOKUP(L4:L73,PROCEDENCIA!B4:C6,2,0),0)*I4:I73</f>
+        <v>1.7999999999999998</v>
       </c>
       <c r="O4" s="6"/>
     </row>
@@ -898,6 +926,12 @@
       <c r="E5">
         <v>1</v>
       </c>
+      <c r="F5" t="str">
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
       <c r="H5" t="s">
         <v>6</v>
       </c>
@@ -906,6 +940,18 @@
       </c>
       <c r="J5">
         <v>40</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="L5" t="str">
+        <v>BRASIL</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2.1</v>
       </c>
       <c r="O5" s="6"/>
     </row>
@@ -925,6 +971,12 @@
       <c r="E6">
         <v>1</v>
       </c>
+      <c r="F6" t="str">
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
       <c r="H6" t="s">
         <v>6</v>
       </c>
@@ -934,6 +986,18 @@
       <c r="J6">
         <v>38</v>
       </c>
+      <c r="K6" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="L6" t="str">
+        <v>BRASIL</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1.28</v>
+      </c>
+      <c r="N6" s="7">
+        <v>2.4</v>
+      </c>
       <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -952,6 +1016,12 @@
       <c r="E7">
         <v>1</v>
       </c>
+      <c r="F7" t="str">
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
       <c r="H7" t="s">
         <v>6</v>
       </c>
@@ -960,6 +1030,18 @@
       </c>
       <c r="J7">
         <v>55</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="L7" t="str">
+        <v>BRASIL</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2.25</v>
       </c>
       <c r="O7" s="6"/>
     </row>
@@ -979,6 +1061,12 @@
       <c r="E8">
         <v>1</v>
       </c>
+      <c r="F8" t="str">
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
       <c r="H8" t="s">
         <v>6</v>
       </c>
@@ -987,6 +1075,18 @@
       </c>
       <c r="J8">
         <v>41</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="L8" t="str">
+        <v>BRASIL</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1.36</v>
+      </c>
+      <c r="N8" s="7">
+        <v>2.5499999999999998</v>
       </c>
       <c r="O8" s="6"/>
     </row>
@@ -1006,6 +1106,12 @@
       <c r="E9">
         <v>1</v>
       </c>
+      <c r="F9" t="str">
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
       <c r="H9" t="s">
         <v>6</v>
       </c>
@@ -1014,6 +1120,18 @@
       </c>
       <c r="J9">
         <v>38</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1.9000000000000001</v>
+      </c>
+      <c r="L9" t="str">
+        <v>BRASIL</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1.52</v>
+      </c>
+      <c r="N9" s="7">
+        <v>2.85</v>
       </c>
       <c r="O9" s="6"/>
     </row>
@@ -1033,6 +1151,12 @@
       <c r="E10">
         <v>1</v>
       </c>
+      <c r="F10" t="str">
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
       <c r="H10" t="s">
         <v>12</v>
       </c>
@@ -1041,6 +1165,18 @@
       </c>
       <c r="J10">
         <v>345</v>
+      </c>
+      <c r="K10" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="L10" t="str">
+        <v>URUGUAY</v>
+      </c>
+      <c r="M10" s="7">
+        <v>5.95</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
       </c>
       <c r="O10" s="6"/>
     </row>
@@ -1060,6 +1196,12 @@
       <c r="E11">
         <v>1</v>
       </c>
+      <c r="F11" t="str">
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
       <c r="H11" t="s">
         <v>12</v>
       </c>
@@ -1068,6 +1210,18 @@
       </c>
       <c r="J11">
         <v>283</v>
+      </c>
+      <c r="K11" s="7">
+        <v>8.75</v>
+      </c>
+      <c r="L11" t="str">
+        <v>URUGUAY</v>
+      </c>
+      <c r="M11" s="7">
+        <v>6.1250000000000009</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
       </c>
       <c r="O11" s="6"/>
     </row>
@@ -1087,6 +1241,12 @@
       <c r="E12">
         <v>1</v>
       </c>
+      <c r="F12" t="str">
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
       <c r="H12" t="s">
         <v>12</v>
       </c>
@@ -1095,6 +1255,18 @@
       </c>
       <c r="J12">
         <v>148</v>
+      </c>
+      <c r="K12" s="7">
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="L12" t="str">
+        <v>URUGUAY</v>
+      </c>
+      <c r="M12" s="7">
+        <v>4.62</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
       </c>
       <c r="O12" s="6"/>
     </row>
@@ -1114,6 +1286,12 @@
       <c r="E13">
         <v>1</v>
       </c>
+      <c r="F13" t="str">
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
       <c r="H13" t="s">
         <v>12</v>
       </c>
@@ -1122,6 +1300,18 @@
       </c>
       <c r="J13">
         <v>108</v>
+      </c>
+      <c r="K13" s="7">
+        <v>6.5500000000000007</v>
+      </c>
+      <c r="L13" t="str">
+        <v>URUGUAY</v>
+      </c>
+      <c r="M13" s="7">
+        <v>4.5850000000000009</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
       </c>
       <c r="O13" s="6"/>
     </row>
@@ -1141,6 +1331,12 @@
       <c r="E14">
         <v>1</v>
       </c>
+      <c r="F14" t="str">
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
       <c r="H14" t="s">
         <v>12</v>
       </c>
@@ -1149,6 +1345,18 @@
       </c>
       <c r="J14">
         <v>56</v>
+      </c>
+      <c r="K14" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L14" t="str">
+        <v>URUGUAY</v>
+      </c>
+      <c r="M14" s="7">
+        <v>3.08</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
       </c>
       <c r="O14" s="6"/>
     </row>
@@ -1168,6 +1376,12 @@
       <c r="E15">
         <v>1</v>
       </c>
+      <c r="F15" t="str">
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
       <c r="H15" t="s">
         <v>12</v>
       </c>
@@ -1176,6 +1390,18 @@
       </c>
       <c r="J15">
         <v>43</v>
+      </c>
+      <c r="K15" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="L15" t="str">
+        <v>URUGUAY</v>
+      </c>
+      <c r="M15" s="7">
+        <v>3.0100000000000002</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
       </c>
       <c r="O15" s="6"/>
     </row>
@@ -1195,6 +1421,12 @@
       <c r="E16">
         <v>4</v>
       </c>
+      <c r="F16" t="str">
+        <v>SANITARIA</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
       <c r="H16" t="s">
         <v>1</v>
       </c>
@@ -1203,6 +1435,18 @@
       </c>
       <c r="J16">
         <v>10</v>
+      </c>
+      <c r="K16" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="L16" t="str">
+        <v>URUGUAY</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
       </c>
       <c r="O16" s="6"/>
     </row>
@@ -1222,6 +1466,12 @@
       <c r="E17">
         <v>4</v>
       </c>
+      <c r="F17" t="str">
+        <v>SANITARIA</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
       <c r="H17" t="s">
         <v>1</v>
       </c>
@@ -1230,6 +1480,18 @@
       </c>
       <c r="J17">
         <v>15</v>
+      </c>
+      <c r="K17" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="L17" t="str">
+        <v>URUGUAY</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
       </c>
       <c r="O17" s="6"/>
     </row>
@@ -1249,6 +1511,12 @@
       <c r="E18">
         <v>4</v>
       </c>
+      <c r="F18" t="str">
+        <v>SANITARIA</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
       <c r="H18" t="s">
         <v>1</v>
       </c>
@@ -1257,6 +1525,18 @@
       </c>
       <c r="J18">
         <v>12</v>
+      </c>
+      <c r="K18" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="L18" t="str">
+        <v>URUGUAY</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
       </c>
       <c r="O18" s="6"/>
     </row>
@@ -1276,6 +1556,12 @@
       <c r="E19">
         <v>3</v>
       </c>
+      <c r="F19" t="str">
+        <v>FERRETERIA</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
       <c r="H19" t="s">
         <v>6</v>
       </c>
@@ -1284,6 +1570,18 @@
       </c>
       <c r="J19">
         <v>18</v>
+      </c>
+      <c r="K19" s="7">
+        <v>8</v>
+      </c>
+      <c r="L19" t="str">
+        <v>BRASIL</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="N19" s="7">
+        <v>3</v>
       </c>
       <c r="O19" s="6"/>
     </row>
@@ -1303,6 +1601,12 @@
       <c r="E20">
         <v>3</v>
       </c>
+      <c r="F20" t="str">
+        <v>FERRETERIA</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
       <c r="H20" t="s">
         <v>6</v>
       </c>
@@ -1311,6 +1615,18 @@
       </c>
       <c r="J20">
         <v>14</v>
+      </c>
+      <c r="K20" s="7">
+        <v>10</v>
+      </c>
+      <c r="L20" t="str">
+        <v>BRASIL</v>
+      </c>
+      <c r="M20" s="7">
+        <v>2</v>
+      </c>
+      <c r="N20" s="7">
+        <v>3.75</v>
       </c>
       <c r="O20" s="6"/>
     </row>
@@ -1330,6 +1646,12 @@
       <c r="E21">
         <v>3</v>
       </c>
+      <c r="F21" t="str">
+        <v>FERRETERIA</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
       <c r="H21" t="s">
         <v>6</v>
       </c>
@@ -1338,6 +1660,18 @@
       </c>
       <c r="J21">
         <v>12</v>
+      </c>
+      <c r="K21" s="7">
+        <v>12</v>
+      </c>
+      <c r="L21" t="str">
+        <v>BRASIL</v>
+      </c>
+      <c r="M21" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="N21" s="7">
+        <v>4.5</v>
       </c>
       <c r="O21" s="6"/>
     </row>
@@ -1357,6 +1691,12 @@
       <c r="E22">
         <v>4</v>
       </c>
+      <c r="F22" t="str">
+        <v>SANITARIA</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
       <c r="H22" t="s">
         <v>1</v>
       </c>
@@ -1365,6 +1705,18 @@
       </c>
       <c r="J22">
         <v>18</v>
+      </c>
+      <c r="K22" s="7">
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="L22" t="str">
+        <v>URUGUAY</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1.32</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
       </c>
       <c r="O22" s="6"/>
     </row>
@@ -1384,6 +1736,12 @@
       <c r="E23">
         <v>4</v>
       </c>
+      <c r="F23" t="str">
+        <v>SANITARIA</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
       <c r="H23" t="s">
         <v>1</v>
       </c>
@@ -1392,6 +1750,18 @@
       </c>
       <c r="J23">
         <v>16</v>
+      </c>
+      <c r="K23" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="L23" t="str">
+        <v>URUGUAY</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1.54</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
       </c>
       <c r="O23" s="6"/>
     </row>
@@ -1411,6 +1781,12 @@
       <c r="E24">
         <v>4</v>
       </c>
+      <c r="F24" t="str">
+        <v>SANITARIA</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
       <c r="H24" t="s">
         <v>1</v>
       </c>
@@ -1419,6 +1795,18 @@
       </c>
       <c r="J24">
         <v>18</v>
+      </c>
+      <c r="K24" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L24" t="str">
+        <v>URUGUAY</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1.87</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
       </c>
       <c r="O24" s="6"/>
     </row>
@@ -1438,6 +1826,12 @@
       <c r="E25">
         <v>4</v>
       </c>
+      <c r="F25" t="str">
+        <v>SANITARIA</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
       <c r="H25" t="s">
         <v>1</v>
       </c>
@@ -1446,6 +1840,18 @@
       </c>
       <c r="J25">
         <v>19</v>
+      </c>
+      <c r="K25" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L25" t="str">
+        <v>URUGUAY</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1.87</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
       </c>
       <c r="O25" s="6"/>
     </row>
@@ -1465,6 +1871,12 @@
       <c r="E26">
         <v>4</v>
       </c>
+      <c r="F26" t="str">
+        <v>SANITARIA</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
       <c r="H26" t="s">
         <v>1</v>
       </c>
@@ -1473,6 +1885,18 @@
       </c>
       <c r="J26">
         <v>45</v>
+      </c>
+      <c r="K26" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="L26" t="str">
+        <v>URUGUAY</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8.25</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
       </c>
       <c r="O26" s="6"/>
     </row>
@@ -1492,6 +1916,12 @@
       <c r="E27">
         <v>4</v>
       </c>
+      <c r="F27" t="str">
+        <v>SANITARIA</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
       <c r="H27" t="s">
         <v>1</v>
       </c>
@@ -1500,6 +1930,18 @@
       </c>
       <c r="J27">
         <v>38</v>
+      </c>
+      <c r="K27" s="7">
+        <v>23.4</v>
+      </c>
+      <c r="L27" t="str">
+        <v>URUGUAY</v>
+      </c>
+      <c r="M27" s="7">
+        <v>8.58</v>
+      </c>
+      <c r="N27" s="7">
+        <v>0</v>
       </c>
       <c r="O27" s="6"/>
     </row>
@@ -1519,6 +1961,12 @@
       <c r="E28">
         <v>4</v>
       </c>
+      <c r="F28" t="str">
+        <v>SANITARIA</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
       <c r="H28" t="s">
         <v>1</v>
       </c>
@@ -1527,6 +1975,18 @@
       </c>
       <c r="J28">
         <v>29</v>
+      </c>
+      <c r="K28" s="7">
+        <v>25.8</v>
+      </c>
+      <c r="L28" t="str">
+        <v>URUGUAY</v>
+      </c>
+      <c r="M28" s="7">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
       </c>
       <c r="O28" s="6"/>
     </row>
@@ -1546,6 +2006,12 @@
       <c r="E29">
         <v>4</v>
       </c>
+      <c r="F29" t="str">
+        <v>SANITARIA</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
       <c r="H29" t="s">
         <v>1</v>
       </c>
@@ -1554,6 +2020,18 @@
       </c>
       <c r="J29">
         <v>31</v>
+      </c>
+      <c r="K29" s="7">
+        <v>29.099999999999998</v>
+      </c>
+      <c r="L29" t="str">
+        <v>URUGUAY</v>
+      </c>
+      <c r="M29" s="7">
+        <v>10.67</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
       </c>
       <c r="O29" s="6"/>
     </row>
@@ -1573,6 +2051,12 @@
       <c r="E30">
         <v>4</v>
       </c>
+      <c r="F30" t="str">
+        <v>SANITARIA</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
       <c r="H30" t="s">
         <v>1</v>
       </c>
@@ -1581,6 +2065,18 @@
       </c>
       <c r="J30">
         <v>8</v>
+      </c>
+      <c r="K30" s="7">
+        <v>36</v>
+      </c>
+      <c r="L30" t="str">
+        <v>ARGENTINA</v>
+      </c>
+      <c r="M30" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="N30" s="7">
+        <v>12</v>
       </c>
       <c r="O30" s="6"/>
     </row>
@@ -1600,6 +2096,12 @@
       <c r="E31">
         <v>4</v>
       </c>
+      <c r="F31" t="str">
+        <v>SANITARIA</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
       <c r="H31" t="s">
         <v>1</v>
       </c>
@@ -1608,6 +2110,18 @@
       </c>
       <c r="J31">
         <v>6</v>
+      </c>
+      <c r="K31" s="7">
+        <v>32.4</v>
+      </c>
+      <c r="L31" t="str">
+        <v>ARGENTINA</v>
+      </c>
+      <c r="M31" s="7">
+        <v>8.64</v>
+      </c>
+      <c r="N31" s="7">
+        <v>10.8</v>
       </c>
       <c r="O31" s="6"/>
     </row>
@@ -1627,6 +2141,12 @@
       <c r="E32">
         <v>4</v>
       </c>
+      <c r="F32" t="str">
+        <v>SANITARIA</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
       <c r="H32" t="s">
         <v>1</v>
       </c>
@@ -1635,6 +2155,18 @@
       </c>
       <c r="J32">
         <v>11</v>
+      </c>
+      <c r="K32" s="7">
+        <v>43.5</v>
+      </c>
+      <c r="L32" t="str">
+        <v>ARGENTINA</v>
+      </c>
+      <c r="M32" s="7">
+        <v>11.6</v>
+      </c>
+      <c r="N32" s="7">
+        <v>14.5</v>
       </c>
       <c r="O32" s="6"/>
     </row>
@@ -1654,6 +2186,12 @@
       <c r="E33">
         <v>4</v>
       </c>
+      <c r="F33" t="str">
+        <v>SANITARIA</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
       <c r="H33" t="s">
         <v>1</v>
       </c>
@@ -1662,6 +2200,18 @@
       </c>
       <c r="J33">
         <v>21</v>
+      </c>
+      <c r="K33" s="7">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="L33" t="str">
+        <v>ARGENTINA</v>
+      </c>
+      <c r="M33" s="7">
+        <v>9.68</v>
+      </c>
+      <c r="N33" s="7">
+        <v>12.100000000000001</v>
       </c>
       <c r="O33" s="6"/>
     </row>
@@ -1681,6 +2231,12 @@
       <c r="E34">
         <v>3</v>
       </c>
+      <c r="F34" t="str">
+        <v>FERRETERIA</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
       <c r="H34" t="s">
         <v>1</v>
       </c>
@@ -1689,6 +2245,18 @@
       </c>
       <c r="J34">
         <v>8</v>
+      </c>
+      <c r="K34" s="7">
+        <v>19.200000000000003</v>
+      </c>
+      <c r="L34" t="str">
+        <v>ARGENTINA</v>
+      </c>
+      <c r="M34" s="7">
+        <v>2.88</v>
+      </c>
+      <c r="N34" s="7">
+        <v>4.8000000000000007</v>
       </c>
       <c r="O34" s="6"/>
     </row>
@@ -1708,6 +2276,12 @@
       <c r="E35">
         <v>3</v>
       </c>
+      <c r="F35" t="str">
+        <v>FERRETERIA</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
       <c r="H35" t="s">
         <v>1</v>
       </c>
@@ -1716,6 +2290,18 @@
       </c>
       <c r="J35">
         <v>650</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="L35" t="str">
+        <v>BRASIL</v>
+      </c>
+      <c r="M35" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="N35" s="7">
+        <v>0.3</v>
       </c>
       <c r="O35" s="6"/>
     </row>
@@ -1735,6 +2321,12 @@
       <c r="E36">
         <v>3</v>
       </c>
+      <c r="F36" t="str">
+        <v>FERRETERIA</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
       <c r="H36" t="s">
         <v>1</v>
       </c>
@@ -1743,6 +2335,18 @@
       </c>
       <c r="J36">
         <v>742</v>
+      </c>
+      <c r="K36" s="7">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="L36" t="str">
+        <v>BRASIL</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0.44999999999999996</v>
       </c>
       <c r="O36" s="6"/>
     </row>
@@ -1762,6 +2366,12 @@
       <c r="E37">
         <v>3</v>
       </c>
+      <c r="F37" t="str">
+        <v>FERRETERIA</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
       <c r="H37" t="s">
         <v>1</v>
       </c>
@@ -1770,6 +2380,18 @@
       </c>
       <c r="J37">
         <v>366</v>
+      </c>
+      <c r="K37" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="L37" t="str">
+        <v>BRASIL</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="N37" s="7">
+        <v>0.6</v>
       </c>
       <c r="O37" s="6"/>
     </row>
@@ -1789,6 +2411,12 @@
       <c r="E38">
         <v>3</v>
       </c>
+      <c r="F38" t="str">
+        <v>FERRETERIA</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
       <c r="H38" t="s">
         <v>1</v>
       </c>
@@ -1797,6 +2425,18 @@
       </c>
       <c r="J38">
         <v>451</v>
+      </c>
+      <c r="K38" s="7">
+        <v>2</v>
+      </c>
+      <c r="L38" t="str">
+        <v>BRASIL</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="N38" s="7">
+        <v>0.75</v>
       </c>
       <c r="O38" s="6"/>
     </row>
@@ -1816,6 +2456,12 @@
       <c r="E39">
         <v>3</v>
       </c>
+      <c r="F39" t="str">
+        <v>FERRETERIA</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
       <c r="H39" t="s">
         <v>1</v>
       </c>
@@ -1824,6 +2470,18 @@
       </c>
       <c r="J39">
         <v>563</v>
+      </c>
+      <c r="K39" s="7">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="L39" t="str">
+        <v>BRASIL</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="N39" s="7">
+        <v>0.44999999999999996</v>
       </c>
       <c r="O39" s="6"/>
     </row>
@@ -1843,6 +2501,12 @@
       <c r="E40">
         <v>3</v>
       </c>
+      <c r="F40" t="str">
+        <v>FERRETERIA</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
       <c r="H40" t="s">
         <v>1</v>
       </c>
@@ -1851,6 +2515,18 @@
       </c>
       <c r="J40">
         <v>421</v>
+      </c>
+      <c r="K40" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="L40" t="str">
+        <v>BRASIL</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0.6</v>
       </c>
       <c r="O40" s="6"/>
     </row>
@@ -1870,6 +2546,12 @@
       <c r="E41">
         <v>3</v>
       </c>
+      <c r="F41" t="str">
+        <v>FERRETERIA</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
       <c r="H41" t="s">
         <v>1</v>
       </c>
@@ -1878,6 +2560,18 @@
       </c>
       <c r="J41">
         <v>257</v>
+      </c>
+      <c r="K41" s="7">
+        <v>2</v>
+      </c>
+      <c r="L41" t="str">
+        <v>BRASIL</v>
+      </c>
+      <c r="M41" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="N41" s="7">
+        <v>0.75</v>
       </c>
       <c r="O41" s="6"/>
     </row>
@@ -1897,6 +2591,12 @@
       <c r="E42">
         <v>3</v>
       </c>
+      <c r="F42" t="str">
+        <v>FERRETERIA</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
       <c r="H42" t="s">
         <v>1</v>
       </c>
@@ -1905,6 +2605,18 @@
       </c>
       <c r="J42">
         <v>412</v>
+      </c>
+      <c r="K42" s="7">
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="L42" t="str">
+        <v>BRASIL</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="N42" s="7">
+        <v>0.89999999999999991</v>
       </c>
       <c r="O42" s="6"/>
     </row>
@@ -1924,6 +2636,12 @@
       <c r="E43">
         <v>3</v>
       </c>
+      <c r="F43" t="str">
+        <v>FERRETERIA</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
       <c r="H43" t="s">
         <v>1</v>
       </c>
@@ -1932,6 +2650,18 @@
       </c>
       <c r="J43">
         <v>314</v>
+      </c>
+      <c r="K43" s="7">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="L43" t="str">
+        <v>BRASIL</v>
+      </c>
+      <c r="M43" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="N43" s="7">
+        <v>0.44999999999999996</v>
       </c>
       <c r="O43" s="6"/>
     </row>
@@ -1951,6 +2681,12 @@
       <c r="E44">
         <v>3</v>
       </c>
+      <c r="F44" t="str">
+        <v>FERRETERIA</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
       <c r="H44" t="s">
         <v>1</v>
       </c>
@@ -1959,6 +2695,18 @@
       </c>
       <c r="J44">
         <v>208</v>
+      </c>
+      <c r="K44" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="L44" t="str">
+        <v>BRASIL</v>
+      </c>
+      <c r="M44" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="N44" s="7">
+        <v>0.6</v>
       </c>
       <c r="O44" s="6"/>
     </row>
@@ -1978,6 +2726,12 @@
       <c r="E45">
         <v>3</v>
       </c>
+      <c r="F45" t="str">
+        <v>FERRETERIA</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
       <c r="H45" t="s">
         <v>1</v>
       </c>
@@ -1986,6 +2740,18 @@
       </c>
       <c r="J45">
         <v>547</v>
+      </c>
+      <c r="K45" s="7">
+        <v>2</v>
+      </c>
+      <c r="L45" t="str">
+        <v>BRASIL</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="N45" s="7">
+        <v>0.75</v>
       </c>
       <c r="O45" s="6"/>
     </row>
@@ -2005,6 +2771,12 @@
       <c r="E46">
         <v>3</v>
       </c>
+      <c r="F46" t="str">
+        <v>FERRETERIA</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
       <c r="H46" t="s">
         <v>1</v>
       </c>
@@ -2013,6 +2785,18 @@
       </c>
       <c r="J46">
         <v>189</v>
+      </c>
+      <c r="K46" s="7">
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="L46" t="str">
+        <v>BRASIL</v>
+      </c>
+      <c r="M46" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="N46" s="7">
+        <v>0.89999999999999991</v>
       </c>
       <c r="O46" s="6"/>
     </row>
@@ -2032,6 +2816,12 @@
       <c r="E47">
         <v>1</v>
       </c>
+      <c r="F47" t="str">
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
       <c r="H47" t="s">
         <v>1</v>
       </c>
@@ -2040,6 +2830,18 @@
       </c>
       <c r="J47">
         <v>72</v>
+      </c>
+      <c r="K47" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L47" t="str">
+        <v>ARGENTINA</v>
+      </c>
+      <c r="M47" s="7">
+        <v>1.21</v>
+      </c>
+      <c r="N47" s="7">
+        <v>1.1000000000000001</v>
       </c>
       <c r="O47" s="6"/>
     </row>
@@ -2059,6 +2861,12 @@
       <c r="E48">
         <v>1</v>
       </c>
+      <c r="F48" t="str">
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
       <c r="H48" t="s">
         <v>1</v>
       </c>
@@ -2067,6 +2875,18 @@
       </c>
       <c r="J48">
         <v>45</v>
+      </c>
+      <c r="K48" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L48" t="str">
+        <v>ARGENTINA</v>
+      </c>
+      <c r="M48" s="7">
+        <v>2.42</v>
+      </c>
+      <c r="N48" s="7">
+        <v>2.2000000000000002</v>
       </c>
       <c r="O48" s="6"/>
     </row>
@@ -2086,6 +2906,12 @@
       <c r="E49">
         <v>1</v>
       </c>
+      <c r="F49" t="str">
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
       <c r="H49" t="s">
         <v>1</v>
       </c>
@@ -2094,6 +2920,18 @@
       </c>
       <c r="J49">
         <v>39</v>
+      </c>
+      <c r="K49" s="7">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="L49" t="str">
+        <v>ARGENTINA</v>
+      </c>
+      <c r="M49" s="7">
+        <v>3.63</v>
+      </c>
+      <c r="N49" s="7">
+        <v>3.3000000000000003</v>
       </c>
       <c r="O49" s="6"/>
     </row>
@@ -2113,6 +2951,12 @@
       <c r="E50">
         <v>1</v>
       </c>
+      <c r="F50" t="str">
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G50">
+        <v>4</v>
+      </c>
       <c r="H50" t="s">
         <v>1</v>
       </c>
@@ -2121,6 +2965,18 @@
       </c>
       <c r="J50">
         <v>2035</v>
+      </c>
+      <c r="K50" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L50" t="str">
+        <v>URUGUAY</v>
+      </c>
+      <c r="M50" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="N50" s="7">
+        <v>0</v>
       </c>
       <c r="O50" s="6"/>
     </row>
@@ -2140,6 +2996,12 @@
       <c r="E51">
         <v>1</v>
       </c>
+      <c r="F51" t="str">
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G51">
+        <v>4</v>
+      </c>
       <c r="H51" t="s">
         <v>1</v>
       </c>
@@ -2148,6 +3010,18 @@
       </c>
       <c r="J51">
         <v>3862</v>
+      </c>
+      <c r="K51" s="7">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="L51" t="str">
+        <v>URUGUAY</v>
+      </c>
+      <c r="M51" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N51" s="7">
+        <v>0</v>
       </c>
       <c r="O51" s="6"/>
     </row>
@@ -2167,6 +3041,12 @@
       <c r="E52">
         <v>1</v>
       </c>
+      <c r="F52" t="str">
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
       <c r="H52" t="s">
         <v>1</v>
       </c>
@@ -2175,6 +3055,18 @@
       </c>
       <c r="J52">
         <v>751</v>
+      </c>
+      <c r="K52" s="7">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="L52" t="str">
+        <v>URUGUAY</v>
+      </c>
+      <c r="M52" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N52" s="7">
+        <v>0</v>
       </c>
       <c r="O52" s="6"/>
     </row>
@@ -2194,6 +3086,12 @@
       <c r="E53">
         <v>1</v>
       </c>
+      <c r="F53" t="str">
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
       <c r="H53" t="s">
         <v>1</v>
       </c>
@@ -2202,6 +3100,18 @@
       </c>
       <c r="J53">
         <v>4130</v>
+      </c>
+      <c r="K53" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="L53" t="str">
+        <v>URUGUAY</v>
+      </c>
+      <c r="M53" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N53" s="7">
+        <v>0</v>
       </c>
       <c r="O53" s="6"/>
     </row>
@@ -2221,6 +3131,12 @@
       <c r="E54">
         <v>1</v>
       </c>
+      <c r="F54" t="str">
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
       <c r="H54" t="s">
         <v>1</v>
       </c>
@@ -2229,6 +3145,18 @@
       </c>
       <c r="J54">
         <v>2309</v>
+      </c>
+      <c r="K54" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="L54" t="str">
+        <v>URUGUAY</v>
+      </c>
+      <c r="M54" s="7">
+        <v>0.63000000000000012</v>
+      </c>
+      <c r="N54" s="7">
+        <v>0</v>
       </c>
       <c r="O54" s="6"/>
     </row>
@@ -2248,6 +3176,12 @@
       <c r="E55">
         <v>1</v>
       </c>
+      <c r="F55" t="str">
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
       <c r="H55" t="s">
         <v>1</v>
       </c>
@@ -2256,6 +3190,18 @@
       </c>
       <c r="J55">
         <v>1690</v>
+      </c>
+      <c r="K55" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L55" t="str">
+        <v>URUGUAY</v>
+      </c>
+      <c r="M55" s="7">
+        <v>0.77</v>
+      </c>
+      <c r="N55" s="7">
+        <v>0</v>
       </c>
       <c r="O55" s="6"/>
     </row>
@@ -2275,6 +3221,12 @@
       <c r="E56">
         <v>1</v>
       </c>
+      <c r="F56" t="str">
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
       <c r="H56" t="s">
         <v>98</v>
       </c>
@@ -2283,6 +3235,18 @@
       </c>
       <c r="J56">
         <v>25</v>
+      </c>
+      <c r="K56" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="L56" t="str">
+        <v>URUGUAY</v>
+      </c>
+      <c r="M56" s="7">
+        <v>3.1500000000000004</v>
+      </c>
+      <c r="N56" s="7">
+        <v>0</v>
       </c>
       <c r="O56" s="6"/>
     </row>
@@ -2302,6 +3266,12 @@
       <c r="E57">
         <v>1</v>
       </c>
+      <c r="F57" t="str">
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
       <c r="H57" t="s">
         <v>98</v>
       </c>
@@ -2310,6 +3280,18 @@
       </c>
       <c r="J57">
         <v>21</v>
+      </c>
+      <c r="K57" s="7">
+        <v>3.8000000000000003</v>
+      </c>
+      <c r="L57" t="str">
+        <v>URUGUAY</v>
+      </c>
+      <c r="M57" s="7">
+        <v>2.66</v>
+      </c>
+      <c r="N57" s="7">
+        <v>0</v>
       </c>
       <c r="O57" s="6"/>
     </row>
@@ -2329,6 +3311,12 @@
       <c r="E58">
         <v>1</v>
       </c>
+      <c r="F58" t="str">
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
       <c r="H58" t="s">
         <v>98</v>
       </c>
@@ -2337,6 +3325,18 @@
       </c>
       <c r="J58">
         <v>19</v>
+      </c>
+      <c r="K58" s="7">
+        <v>2.9000000000000004</v>
+      </c>
+      <c r="L58" t="str">
+        <v>URUGUAY</v>
+      </c>
+      <c r="M58" s="7">
+        <v>2.0300000000000002</v>
+      </c>
+      <c r="N58" s="7">
+        <v>0</v>
       </c>
       <c r="O58" s="6"/>
     </row>
@@ -2356,6 +3356,12 @@
       <c r="E59">
         <v>1</v>
       </c>
+      <c r="F59" t="str">
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
+      </c>
       <c r="H59" t="s">
         <v>98</v>
       </c>
@@ -2364,6 +3370,18 @@
       </c>
       <c r="J59">
         <v>15</v>
+      </c>
+      <c r="K59" s="7">
+        <v>1.9000000000000001</v>
+      </c>
+      <c r="L59" t="str">
+        <v>URUGUAY</v>
+      </c>
+      <c r="M59" s="7">
+        <v>1.33</v>
+      </c>
+      <c r="N59" s="7">
+        <v>0</v>
       </c>
       <c r="O59" s="6"/>
     </row>
@@ -2383,6 +3401,12 @@
       <c r="E60">
         <v>1</v>
       </c>
+      <c r="F60" t="str">
+        <v>CONSTRUCCION</v>
+      </c>
+      <c r="G60">
+        <v>3</v>
+      </c>
       <c r="H60" t="s">
         <v>98</v>
       </c>
@@ -2391,6 +3415,18 @@
       </c>
       <c r="J60">
         <v>9</v>
+      </c>
+      <c r="K60" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="L60" t="str">
+        <v>URUGUAY</v>
+      </c>
+      <c r="M60" s="7">
+        <v>1.05</v>
+      </c>
+      <c r="N60" s="7">
+        <v>0</v>
       </c>
       <c r="O60" s="6"/>
     </row>
@@ -2410,6 +3446,12 @@
       <c r="E61">
         <v>2</v>
       </c>
+      <c r="F61" t="str">
+        <v>PINTURERIA</v>
+      </c>
+      <c r="G61">
+        <v>4</v>
+      </c>
       <c r="H61" t="s">
         <v>1</v>
       </c>
@@ -2418,6 +3460,18 @@
       </c>
       <c r="J61">
         <v>8</v>
+      </c>
+      <c r="K61" s="7">
+        <v>32.800000000000004</v>
+      </c>
+      <c r="L61" t="str">
+        <v>URUGUAY</v>
+      </c>
+      <c r="M61" s="7">
+        <v>9.84</v>
+      </c>
+      <c r="N61" s="7">
+        <v>0</v>
       </c>
       <c r="O61" s="6"/>
     </row>
@@ -2437,6 +3491,12 @@
       <c r="E62">
         <v>2</v>
       </c>
+      <c r="F62" t="str">
+        <v>PINTURERIA</v>
+      </c>
+      <c r="G62">
+        <v>4</v>
+      </c>
       <c r="H62" t="s">
         <v>1</v>
       </c>
@@ -2445,6 +3505,18 @@
       </c>
       <c r="J62">
         <v>9</v>
+      </c>
+      <c r="K62" s="7">
+        <v>126.4</v>
+      </c>
+      <c r="L62" t="str">
+        <v>URUGUAY</v>
+      </c>
+      <c r="M62" s="7">
+        <v>37.92</v>
+      </c>
+      <c r="N62" s="7">
+        <v>0</v>
       </c>
       <c r="O62" s="6"/>
     </row>
@@ -2464,6 +3536,12 @@
       <c r="E63">
         <v>2</v>
       </c>
+      <c r="F63" t="str">
+        <v>PINTURERIA</v>
+      </c>
+      <c r="G63">
+        <v>4</v>
+      </c>
       <c r="H63" t="s">
         <v>1</v>
       </c>
@@ -2472,6 +3550,18 @@
       </c>
       <c r="J63">
         <v>11</v>
+      </c>
+      <c r="K63" s="7">
+        <v>14.8</v>
+      </c>
+      <c r="L63" t="str">
+        <v>URUGUAY</v>
+      </c>
+      <c r="M63" s="7">
+        <v>4.4399999999999995</v>
+      </c>
+      <c r="N63" s="7">
+        <v>0</v>
       </c>
       <c r="O63" s="6"/>
     </row>
@@ -2491,6 +3581,12 @@
       <c r="E64">
         <v>2</v>
       </c>
+      <c r="F64" t="str">
+        <v>PINTURERIA</v>
+      </c>
+      <c r="G64">
+        <v>4</v>
+      </c>
       <c r="H64" t="s">
         <v>1</v>
       </c>
@@ -2499,6 +3595,18 @@
       </c>
       <c r="J64">
         <v>10</v>
+      </c>
+      <c r="K64" s="7">
+        <v>71</v>
+      </c>
+      <c r="L64" t="str">
+        <v>URUGUAY</v>
+      </c>
+      <c r="M64" s="7">
+        <v>21.3</v>
+      </c>
+      <c r="N64" s="7">
+        <v>0</v>
       </c>
       <c r="O64" s="6"/>
     </row>
@@ -2518,6 +3626,12 @@
       <c r="E65">
         <v>2</v>
       </c>
+      <c r="F65" t="str">
+        <v>PINTURERIA</v>
+      </c>
+      <c r="G65">
+        <v>4</v>
+      </c>
       <c r="H65" t="s">
         <v>1</v>
       </c>
@@ -2526,6 +3640,18 @@
       </c>
       <c r="J65">
         <v>9</v>
+      </c>
+      <c r="K65" s="7">
+        <v>192.60000000000002</v>
+      </c>
+      <c r="L65" t="str">
+        <v>URUGUAY</v>
+      </c>
+      <c r="M65" s="7">
+        <v>57.78</v>
+      </c>
+      <c r="N65" s="7">
+        <v>0</v>
       </c>
       <c r="O65" s="6"/>
     </row>
@@ -2545,6 +3671,12 @@
       <c r="E66">
         <v>2</v>
       </c>
+      <c r="F66" t="str">
+        <v>PINTURERIA</v>
+      </c>
+      <c r="G66">
+        <v>4</v>
+      </c>
       <c r="H66" t="s">
         <v>1</v>
       </c>
@@ -2553,6 +3685,18 @@
       </c>
       <c r="J66">
         <v>7</v>
+      </c>
+      <c r="K66" s="7">
+        <v>7.4</v>
+      </c>
+      <c r="L66" t="str">
+        <v>BRASIL</v>
+      </c>
+      <c r="M66" s="7">
+        <v>2.2199999999999998</v>
+      </c>
+      <c r="N66" s="7">
+        <v>5.55</v>
       </c>
       <c r="O66" s="6"/>
     </row>
@@ -2572,6 +3716,12 @@
       <c r="E67">
         <v>2</v>
       </c>
+      <c r="F67" t="str">
+        <v>PINTURERIA</v>
+      </c>
+      <c r="G67">
+        <v>4</v>
+      </c>
       <c r="H67" t="s">
         <v>1</v>
       </c>
@@ -2580,6 +3730,18 @@
       </c>
       <c r="J67">
         <v>11</v>
+      </c>
+      <c r="K67" s="7">
+        <v>31.400000000000002</v>
+      </c>
+      <c r="L67" t="str">
+        <v>BRASIL</v>
+      </c>
+      <c r="M67" s="7">
+        <v>9.42</v>
+      </c>
+      <c r="N67" s="7">
+        <v>23.55</v>
       </c>
       <c r="O67" s="6"/>
     </row>
@@ -2599,6 +3761,12 @@
       <c r="E68">
         <v>2</v>
       </c>
+      <c r="F68" t="str">
+        <v>PINTURERIA</v>
+      </c>
+      <c r="G68">
+        <v>4</v>
+      </c>
       <c r="H68" t="s">
         <v>1</v>
       </c>
@@ -2607,6 +3775,18 @@
       </c>
       <c r="J68">
         <v>13</v>
+      </c>
+      <c r="K68" s="7">
+        <v>116.2</v>
+      </c>
+      <c r="L68" t="str">
+        <v>BRASIL</v>
+      </c>
+      <c r="M68" s="7">
+        <v>34.86</v>
+      </c>
+      <c r="N68" s="7">
+        <v>87.149999999999991</v>
       </c>
       <c r="O68" s="6"/>
     </row>
@@ -2626,6 +3806,12 @@
       <c r="E69">
         <v>2</v>
       </c>
+      <c r="F69" t="str">
+        <v>PINTURERIA</v>
+      </c>
+      <c r="G69">
+        <v>4</v>
+      </c>
       <c r="H69" t="s">
         <v>1</v>
       </c>
@@ -2634,6 +3820,18 @@
       </c>
       <c r="J69">
         <v>7</v>
+      </c>
+      <c r="K69" s="7">
+        <v>13.8</v>
+      </c>
+      <c r="L69" t="str">
+        <v>BRASIL</v>
+      </c>
+      <c r="M69" s="7">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="N69" s="7">
+        <v>10.35</v>
       </c>
       <c r="O69" s="6"/>
     </row>
@@ -2653,6 +3851,12 @@
       <c r="E70">
         <v>2</v>
       </c>
+      <c r="F70" t="str">
+        <v>PINTURERIA</v>
+      </c>
+      <c r="G70">
+        <v>4</v>
+      </c>
       <c r="H70" t="s">
         <v>1</v>
       </c>
@@ -2661,6 +3865,18 @@
       </c>
       <c r="J70">
         <v>9</v>
+      </c>
+      <c r="K70" s="7">
+        <v>69.600000000000009</v>
+      </c>
+      <c r="L70" t="str">
+        <v>BRASIL</v>
+      </c>
+      <c r="M70" s="7">
+        <v>20.88</v>
+      </c>
+      <c r="N70" s="7">
+        <v>52.199999999999996</v>
       </c>
       <c r="O70" s="6"/>
     </row>
@@ -2680,6 +3896,12 @@
       <c r="E71">
         <v>2</v>
       </c>
+      <c r="F71" t="str">
+        <v>PINTURERIA</v>
+      </c>
+      <c r="G71">
+        <v>4</v>
+      </c>
       <c r="H71" t="s">
         <v>1</v>
       </c>
@@ -2688,6 +3910,18 @@
       </c>
       <c r="J71">
         <v>10</v>
+      </c>
+      <c r="K71" s="7">
+        <v>181.60000000000002</v>
+      </c>
+      <c r="L71" t="str">
+        <v>BRASIL</v>
+      </c>
+      <c r="M71" s="7">
+        <v>54.48</v>
+      </c>
+      <c r="N71" s="7">
+        <v>136.19999999999999</v>
       </c>
       <c r="O71" s="6"/>
     </row>
@@ -2707,6 +3941,12 @@
       <c r="E72">
         <v>3</v>
       </c>
+      <c r="F72" t="str">
+        <v>FERRETERIA</v>
+      </c>
+      <c r="G72">
+        <v>4</v>
+      </c>
       <c r="H72" t="s">
         <v>1</v>
       </c>
@@ -2715,6 +3955,18 @@
       </c>
       <c r="J72">
         <v>60</v>
+      </c>
+      <c r="K72" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="L72" t="str">
+        <v>BRASIL</v>
+      </c>
+      <c r="M72" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="N72" s="7">
+        <v>1.2</v>
       </c>
       <c r="O72" s="6"/>
     </row>
@@ -2734,6 +3986,12 @@
       <c r="E73">
         <v>3</v>
       </c>
+      <c r="F73" t="str">
+        <v>FERRETERIA</v>
+      </c>
+      <c r="G73">
+        <v>4</v>
+      </c>
       <c r="H73" t="s">
         <v>1</v>
       </c>
@@ -2742,6 +4000,18 @@
       </c>
       <c r="J73">
         <v>70</v>
+      </c>
+      <c r="K73" s="7">
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="L73" t="str">
+        <v>BRASIL</v>
+      </c>
+      <c r="M73" s="7">
+        <v>0.68</v>
+      </c>
+      <c r="N73" s="7">
+        <v>1.2749999999999999</v>
       </c>
       <c r="O73" s="6"/>
     </row>
@@ -2757,7 +4027,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/m1/u1/ejercicios/20191107/EjExcAva-Pra3.xlsx
+++ b/m1/u1/ejercicios/20191107/EjExcAva-Pra3.xlsx
@@ -437,7 +437,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -502,7 +502,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -908,7 +908,10 @@
         <f t="array" ref="N4:N73">IF(L4:L73&lt;&gt;"URUGUAY",VLOOKUP(L4:L73,PROCEDENCIA!B4:C6,2,0),0)*I4:I73</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="O4" s="6"/>
+      <c r="O4" s="6">
+        <f t="array" ref="O4:O73">IF(OR(L4:L73="Argentina",L4:L73="Uruguay"),VLOOKUP(D4:D73,TABLAS!E4:H18,4,0)*I4:I73,"0")</f>
+        <v>0.12</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -953,7 +956,9 @@
       <c r="N5" s="7">
         <v>2.1</v>
       </c>
-      <c r="O5" s="6"/>
+      <c r="O5" s="6">
+        <v>0.14000000000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -998,7 +1003,9 @@
       <c r="N6" s="7">
         <v>2.4</v>
       </c>
-      <c r="O6" s="6"/>
+      <c r="O6" s="6">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -1043,7 +1050,9 @@
       <c r="N7" s="7">
         <v>2.25</v>
       </c>
-      <c r="O7" s="6"/>
+      <c r="O7" s="6">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -1088,7 +1097,9 @@
       <c r="N8" s="7">
         <v>2.5499999999999998</v>
       </c>
-      <c r="O8" s="6"/>
+      <c r="O8" s="6">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -1133,7 +1144,9 @@
       <c r="N9" s="7">
         <v>2.85</v>
       </c>
-      <c r="O9" s="6"/>
+      <c r="O9" s="6">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -1178,7 +1191,9 @@
       <c r="N10" s="7">
         <v>0</v>
       </c>
-      <c r="O10" s="6"/>
+      <c r="O10" s="6">
+        <v>2.5499999999999998</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -1223,7 +1238,9 @@
       <c r="N11" s="7">
         <v>0</v>
       </c>
-      <c r="O11" s="6"/>
+      <c r="O11" s="6">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -1268,7 +1285,9 @@
       <c r="N12" s="7">
         <v>0</v>
       </c>
-      <c r="O12" s="6"/>
+      <c r="O12" s="6">
+        <v>2.64</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -1313,7 +1332,9 @@
       <c r="N13" s="7">
         <v>0</v>
       </c>
-      <c r="O13" s="6"/>
+      <c r="O13" s="6">
+        <v>1.9649999999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -1358,7 +1379,9 @@
       <c r="N14" s="7">
         <v>0</v>
       </c>
-      <c r="O14" s="6"/>
+      <c r="O14" s="6">
+        <v>1.76</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -1403,7 +1426,9 @@
       <c r="N15" s="7">
         <v>0</v>
       </c>
-      <c r="O15" s="6"/>
+      <c r="O15" s="6">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -1448,7 +1473,9 @@
       <c r="N16" s="7">
         <v>0</v>
       </c>
-      <c r="O16" s="6"/>
+      <c r="O16" s="6">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -1493,7 +1520,9 @@
       <c r="N17" s="7">
         <v>0</v>
       </c>
-      <c r="O17" s="6"/>
+      <c r="O17" s="6">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -1538,7 +1567,9 @@
       <c r="N18" s="7">
         <v>0</v>
       </c>
-      <c r="O18" s="6"/>
+      <c r="O18" s="6">
+        <v>0.70000000000000007</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -1583,7 +1614,9 @@
       <c r="N19" s="7">
         <v>3</v>
       </c>
-      <c r="O19" s="6"/>
+      <c r="O19" s="6">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -1628,7 +1661,9 @@
       <c r="N20" s="7">
         <v>3.75</v>
       </c>
-      <c r="O20" s="6"/>
+      <c r="O20" s="6">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -1673,7 +1708,9 @@
       <c r="N21" s="7">
         <v>4.5</v>
       </c>
-      <c r="O21" s="6"/>
+      <c r="O21" s="6">
+        <v>0.89999999999999991</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -1718,7 +1755,9 @@
       <c r="N22" s="7">
         <v>0</v>
       </c>
-      <c r="O22" s="6"/>
+      <c r="O22" s="6">
+        <v>0.60000000000000009</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -1763,7 +1802,9 @@
       <c r="N23" s="7">
         <v>0</v>
       </c>
-      <c r="O23" s="6"/>
+      <c r="O23" s="6">
+        <v>0.70000000000000007</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
@@ -1808,7 +1849,9 @@
       <c r="N24" s="7">
         <v>0</v>
       </c>
-      <c r="O24" s="6"/>
+      <c r="O24" s="6">
+        <v>0.85000000000000009</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
@@ -1853,7 +1896,9 @@
       <c r="N25" s="7">
         <v>0</v>
       </c>
-      <c r="O25" s="6"/>
+      <c r="O25" s="6">
+        <v>0.85000000000000009</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
@@ -1898,7 +1943,9 @@
       <c r="N26" s="7">
         <v>0</v>
       </c>
-      <c r="O26" s="6"/>
+      <c r="O26" s="6">
+        <v>3.75</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
@@ -1943,7 +1990,9 @@
       <c r="N27" s="7">
         <v>0</v>
       </c>
-      <c r="O27" s="6"/>
+      <c r="O27" s="6">
+        <v>3.9000000000000004</v>
+      </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
@@ -1988,7 +2037,9 @@
       <c r="N28" s="7">
         <v>0</v>
       </c>
-      <c r="O28" s="6"/>
+      <c r="O28" s="6">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
@@ -2033,7 +2084,9 @@
       <c r="N29" s="7">
         <v>0</v>
       </c>
-      <c r="O29" s="6"/>
+      <c r="O29" s="6">
+        <v>4.8500000000000005</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
@@ -2078,7 +2131,9 @@
       <c r="N30" s="7">
         <v>12</v>
       </c>
-      <c r="O30" s="6"/>
+      <c r="O30" s="6">
+        <v>9.6</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
@@ -2123,7 +2178,9 @@
       <c r="N31" s="7">
         <v>10.8</v>
       </c>
-      <c r="O31" s="6"/>
+      <c r="O31" s="6">
+        <v>7.5600000000000005</v>
+      </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
@@ -2168,7 +2225,9 @@
       <c r="N32" s="7">
         <v>14.5</v>
       </c>
-      <c r="O32" s="6"/>
+      <c r="O32" s="6">
+        <v>11.6</v>
+      </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
@@ -2213,7 +2272,9 @@
       <c r="N33" s="7">
         <v>12.100000000000001</v>
       </c>
-      <c r="O33" s="6"/>
+      <c r="O33" s="6">
+        <v>8.4700000000000006</v>
+      </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
@@ -2258,7 +2319,9 @@
       <c r="N34" s="7">
         <v>4.8000000000000007</v>
       </c>
-      <c r="O34" s="6"/>
+      <c r="O34" s="6">
+        <v>2.88</v>
+      </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
@@ -2303,7 +2366,9 @@
       <c r="N35" s="7">
         <v>0.3</v>
       </c>
-      <c r="O35" s="6"/>
+      <c r="O35" s="6">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
@@ -2348,7 +2413,9 @@
       <c r="N36" s="7">
         <v>0.44999999999999996</v>
       </c>
-      <c r="O36" s="6"/>
+      <c r="O36" s="6">
+        <v>0.15000000000000002</v>
+      </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
@@ -2393,7 +2460,9 @@
       <c r="N37" s="7">
         <v>0.6</v>
       </c>
-      <c r="O37" s="6"/>
+      <c r="O37" s="6">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
@@ -2438,7 +2507,9 @@
       <c r="N38" s="7">
         <v>0.75</v>
       </c>
-      <c r="O38" s="6"/>
+      <c r="O38" s="6">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
@@ -2483,7 +2554,9 @@
       <c r="N39" s="7">
         <v>0.44999999999999996</v>
       </c>
-      <c r="O39" s="6"/>
+      <c r="O39" s="6">
+        <v>0.15000000000000002</v>
+      </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
@@ -2528,7 +2601,9 @@
       <c r="N40" s="7">
         <v>0.6</v>
       </c>
-      <c r="O40" s="6"/>
+      <c r="O40" s="6">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
@@ -2573,7 +2648,9 @@
       <c r="N41" s="7">
         <v>0.75</v>
       </c>
-      <c r="O41" s="6"/>
+      <c r="O41" s="6">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
@@ -2618,7 +2695,9 @@
       <c r="N42" s="7">
         <v>0.89999999999999991</v>
       </c>
-      <c r="O42" s="6"/>
+      <c r="O42" s="6">
+        <v>0.30000000000000004</v>
+      </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
@@ -2663,7 +2742,9 @@
       <c r="N43" s="7">
         <v>0.44999999999999996</v>
       </c>
-      <c r="O43" s="6"/>
+      <c r="O43" s="6">
+        <v>0.15000000000000002</v>
+      </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44">
@@ -2708,7 +2789,9 @@
       <c r="N44" s="7">
         <v>0.6</v>
       </c>
-      <c r="O44" s="6"/>
+      <c r="O44" s="6">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
@@ -2753,7 +2836,9 @@
       <c r="N45" s="7">
         <v>0.75</v>
       </c>
-      <c r="O45" s="6"/>
+      <c r="O45" s="6">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
@@ -2798,7 +2883,9 @@
       <c r="N46" s="7">
         <v>0.89999999999999991</v>
       </c>
-      <c r="O46" s="6"/>
+      <c r="O46" s="6">
+        <v>0.30000000000000004</v>
+      </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
@@ -2843,7 +2930,9 @@
       <c r="N47" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O47" s="6"/>
+      <c r="O47" s="6">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
@@ -2888,7 +2977,9 @@
       <c r="N48" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="O48" s="6"/>
+      <c r="O48" s="6">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
@@ -2933,7 +3024,9 @@
       <c r="N49" s="7">
         <v>3.3000000000000003</v>
       </c>
-      <c r="O49" s="6"/>
+      <c r="O49" s="6">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
@@ -2978,7 +3071,9 @@
       <c r="N50" s="7">
         <v>0</v>
       </c>
-      <c r="O50" s="6"/>
+      <c r="O50" s="6">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
@@ -3023,7 +3118,9 @@
       <c r="N51" s="7">
         <v>0</v>
       </c>
-      <c r="O51" s="6"/>
+      <c r="O51" s="6">
+        <v>0.14000000000000001</v>
+      </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52">
@@ -3068,7 +3165,9 @@
       <c r="N52" s="7">
         <v>0</v>
       </c>
-      <c r="O52" s="6"/>
+      <c r="O52" s="6">
+        <v>0.14000000000000001</v>
+      </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53">
@@ -3113,7 +3212,9 @@
       <c r="N53" s="7">
         <v>0</v>
       </c>
-      <c r="O53" s="6"/>
+      <c r="O53" s="6">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54">
@@ -3158,7 +3259,9 @@
       <c r="N54" s="7">
         <v>0</v>
       </c>
-      <c r="O54" s="6"/>
+      <c r="O54" s="6">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55">
@@ -3203,7 +3306,9 @@
       <c r="N55" s="7">
         <v>0</v>
       </c>
-      <c r="O55" s="6"/>
+      <c r="O55" s="6">
+        <v>0.32999999999999996</v>
+      </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56">
@@ -3248,7 +3353,9 @@
       <c r="N56" s="7">
         <v>0</v>
       </c>
-      <c r="O56" s="6"/>
+      <c r="O56" s="6">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57">
@@ -3293,7 +3400,9 @@
       <c r="N57" s="7">
         <v>0</v>
       </c>
-      <c r="O57" s="6"/>
+      <c r="O57" s="6">
+        <v>1.9000000000000001</v>
+      </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58">
@@ -3338,7 +3447,9 @@
       <c r="N58" s="7">
         <v>0</v>
       </c>
-      <c r="O58" s="6"/>
+      <c r="O58" s="6">
+        <v>1.4500000000000002</v>
+      </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59">
@@ -3383,7 +3494,9 @@
       <c r="N59" s="7">
         <v>0</v>
       </c>
-      <c r="O59" s="6"/>
+      <c r="O59" s="6">
+        <v>0.95000000000000007</v>
+      </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60">
@@ -3428,7 +3541,9 @@
       <c r="N60" s="7">
         <v>0</v>
       </c>
-      <c r="O60" s="6"/>
+      <c r="O60" s="6">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61">
@@ -3473,7 +3588,9 @@
       <c r="N61" s="7">
         <v>0</v>
       </c>
-      <c r="O61" s="6"/>
+      <c r="O61" s="6">
+        <v>9.84</v>
+      </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62">
@@ -3518,7 +3635,9 @@
       <c r="N62" s="7">
         <v>0</v>
       </c>
-      <c r="O62" s="6"/>
+      <c r="O62" s="6">
+        <v>37.92</v>
+      </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63">
@@ -3563,7 +3682,9 @@
       <c r="N63" s="7">
         <v>0</v>
       </c>
-      <c r="O63" s="6"/>
+      <c r="O63" s="6">
+        <v>4.4399999999999995</v>
+      </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64">
@@ -3608,7 +3729,9 @@
       <c r="N64" s="7">
         <v>0</v>
       </c>
-      <c r="O64" s="6"/>
+      <c r="O64" s="6">
+        <v>21.3</v>
+      </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65">
@@ -3653,7 +3776,9 @@
       <c r="N65" s="7">
         <v>0</v>
       </c>
-      <c r="O65" s="6"/>
+      <c r="O65" s="6">
+        <v>57.78</v>
+      </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66">
@@ -3698,7 +3823,9 @@
       <c r="N66" s="7">
         <v>5.55</v>
       </c>
-      <c r="O66" s="6"/>
+      <c r="O66" s="6">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67">
@@ -3743,7 +3870,9 @@
       <c r="N67" s="7">
         <v>23.55</v>
       </c>
-      <c r="O67" s="6"/>
+      <c r="O67" s="6">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68">
@@ -3788,7 +3917,9 @@
       <c r="N68" s="7">
         <v>87.149999999999991</v>
       </c>
-      <c r="O68" s="6"/>
+      <c r="O68" s="6">
+        <v>5.8100000000000005</v>
+      </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69">
@@ -3833,7 +3964,9 @@
       <c r="N69" s="7">
         <v>10.35</v>
       </c>
-      <c r="O69" s="6"/>
+      <c r="O69" s="6">
+        <v>0.69000000000000006</v>
+      </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70">
@@ -3878,7 +4011,9 @@
       <c r="N70" s="7">
         <v>52.199999999999996</v>
       </c>
-      <c r="O70" s="6"/>
+      <c r="O70" s="6">
+        <v>3.48</v>
+      </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71">
@@ -3923,7 +4058,9 @@
       <c r="N71" s="7">
         <v>136.19999999999999</v>
       </c>
-      <c r="O71" s="6"/>
+      <c r="O71" s="6">
+        <v>9.08</v>
+      </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72">
@@ -3968,7 +4105,9 @@
       <c r="N72" s="7">
         <v>1.2</v>
       </c>
-      <c r="O72" s="6"/>
+      <c r="O72" s="6">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73">
@@ -4013,7 +4152,9 @@
       <c r="N73" s="7">
         <v>1.2749999999999999</v>
       </c>
-      <c r="O73" s="6"/>
+      <c r="O73" s="6">
+        <v>0.42500000000000004</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -4027,7 +4168,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F12" sqref="F12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4363,7 +4504,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4436,7 +4577,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A4" sqref="A4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
